--- a/docx/template_report/Template_PHUN_IN.xlsx
+++ b/docx/template_report/Template_PHUN_IN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DownloadChrome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuildProject\SmartFactory\docx\template_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>H02-0PKW4180-019</t>
-  </si>
-  <si>
-    <t>以下空白</t>
   </si>
   <si>
     <r>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>Nhập phục vụ</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
@@ -518,51 +518,51 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -907,7 +907,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,8 +968,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
-      <c r="A2" s="18" t="s">
-        <v>26</v>
+      <c r="A2" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>13</v>
@@ -992,14 +992,14 @@
       <c r="H2" s="7">
         <v>217</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="28">
         <f>H2*F2+F3*H3+F4*H4+H5*F5+H6*F6</f>
         <v>217</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="31">
         <v>35000</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="23">
         <f>+J2*I2</f>
         <v>7595000</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="18.75">
-      <c r="A3" s="19"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -1023,14 +1023,14 @@
       <c r="H3" s="7">
         <v>217</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
-      <c r="A4" s="19"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1046,14 +1046,14 @@
       <c r="H4" s="7">
         <v>217</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="19"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -1069,17 +1069,17 @@
       <c r="H5" s="7">
         <v>122</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="19"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1092,20 +1092,20 @@
       <c r="H6" s="7">
         <v>238</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="18.75">
-      <c r="A7" s="19"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="21"/>
       <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1119,14 +1119,14 @@
       <c r="H7" s="7">
         <v>217</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="28">
         <f>H7*F7+F8*H8+F9*H9+H10*F10+H11*F11</f>
         <v>217</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="31">
         <v>35000</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="23">
         <f>+J7*I7</f>
         <v>7595000</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="18.75">
-      <c r="A8" s="19"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -1150,14 +1150,14 @@
       <c r="H8" s="7">
         <v>217</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="19"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -1173,14 +1173,14 @@
       <c r="H9" s="7">
         <v>217</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="2"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="19"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -1196,17 +1196,17 @@
       <c r="H10" s="7">
         <v>122</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="18.75">
-      <c r="A11" s="19"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1219,20 +1219,20 @@
       <c r="H11" s="7">
         <v>238</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="18.75">
-      <c r="A12" s="19"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="21"/>
       <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -1246,14 +1246,14 @@
       <c r="H12" s="7">
         <v>217</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="28">
         <f>H12*F12+F13*H13+F14*H14+H15*F15+H16*F16</f>
         <v>125</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="31">
         <v>35000</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="23">
         <f>+J12*I12</f>
         <v>4375000</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="18.75">
-      <c r="A13" s="19"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -1277,14 +1277,14 @@
       <c r="H13" s="7">
         <v>259</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="18.75">
-      <c r="A14" s="19"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1300,14 +1300,14 @@
       <c r="H14" s="7">
         <v>217</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="18.75">
-      <c r="A15" s="19"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -1323,17 +1323,17 @@
       <c r="H15" s="7">
         <v>125</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="18.75">
-      <c r="A16" s="19"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1346,20 +1346,20 @@
       <c r="H16" s="7">
         <v>238</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="18.75">
-      <c r="A17" s="19"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="21"/>
       <c r="C17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
@@ -1373,14 +1373,14 @@
       <c r="H17" s="7">
         <v>217</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="28">
         <f>H17*F17+F18*H18+F19*H19+H20*F20+H21*F21</f>
         <v>1000</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="31">
         <v>35000</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="23">
         <f>+J17*I17</f>
         <v>35000000</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="19"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -1404,14 +1404,14 @@
       <c r="H18" s="7">
         <v>259</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="24"/>
       <c r="L18" s="2"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="18.75">
-      <c r="A19" s="19"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -1427,14 +1427,14 @@
       <c r="H19" s="7">
         <v>217</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="24"/>
       <c r="L19" s="2"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" ht="18.75">
-      <c r="A20" s="19"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -1450,17 +1450,17 @@
       <c r="H20" s="7">
         <v>125</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" ht="18.75">
-      <c r="A21" s="19"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1473,20 +1473,20 @@
       <c r="H21" s="7">
         <v>238</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="25"/>
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="18.75">
-      <c r="A22" s="19"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>16</v>
@@ -1500,14 +1500,14 @@
       <c r="H22" s="7">
         <v>217</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="28">
         <f>H22*F22+F23*H23+F24*H24+H25*F25+H26*F26</f>
         <v>250</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="31">
         <v>35000</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="23">
         <f>+J22*I22</f>
         <v>8750000</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="18.75">
-      <c r="A23" s="19"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -1531,14 +1531,14 @@
       <c r="H23" s="7">
         <v>259</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="18.75">
-      <c r="A24" s="19"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -1554,14 +1554,14 @@
       <c r="H24" s="7">
         <v>217</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="24"/>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="19"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -1577,17 +1577,17 @@
       <c r="H25" s="7">
         <v>125</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" ht="18.75">
-      <c r="A26" s="19"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1600,15 +1600,15 @@
       <c r="H26" s="7">
         <v>238</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="25"/>
       <c r="L26" s="2"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" ht="23.25">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -1628,17 +1628,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="K22:K26"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="I2:I6"/>
@@ -1655,6 +1644,17 @@
     <mergeCell ref="K17:K21"/>
     <mergeCell ref="I22:I26"/>
     <mergeCell ref="J22:J26"/>
+    <mergeCell ref="K22:K26"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1682,63 +1682,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="32" t="s">
+      <c r="B2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="18">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="32">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="33" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="32">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
